--- a/tmp/multi-analyse.xlsx
+++ b/tmp/multi-analyse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="1500" windowWidth="21760" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="21760" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="50">
   <si>
     <t>*</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>don't support</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,6 +786,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1075,7 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="9"/>
@@ -1263,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="9"/>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>0</v>
@@ -1436,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="34"/>
@@ -1491,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="38"/>
@@ -1691,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="9" t="s">
@@ -1921,7 +1933,7 @@
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
       <c r="R16" s="35" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S16" s="36" t="s">
         <v>0</v>
@@ -1954,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="13"/>
@@ -2029,8 +2041,12 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2052,8 +2068,12 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
